--- a/biology/Zoologie/Capillaria_eurycerca/Capillaria_eurycerca.xlsx
+++ b/biology/Zoologie/Capillaria_eurycerca/Capillaria_eurycerca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tridentocapillaria eurycerca, Echinocoleus eurycercus
 Capillaria eurycerca est une espèce de nématodes de la famille des Capillariidae, parasitant des oiseaux.
@@ -512,9 +524,11 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Capillaria eurycerca a été décrit chez le Pic cendré (Picus canus)[1],[2], mais une femelle a également été trouvée chez le Pic porphyroïde (Blythipicus rubiginosus), bien que d'abord identifié comme Capillaria tridens[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capillaria eurycerca a été décrit chez le Pic cendré (Picus canus) mais une femelle a également été trouvée chez le Pic porphyroïde (Blythipicus rubiginosus), bien que d'abord identifié comme Capillaria tridens.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Capillaria eurycerca a été originellement décrit d'oiseaux provenant du Primorié, mais a également été trouvé chez un Pic porphyroïde en Indonésie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capillaria eurycerca a été originellement décrit d'oiseaux provenant du Primorié, mais a également été trouvé chez un Pic porphyroïde en Indonésie.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en 1963 sous le protonyme Thominx eurycerca. En 1990, Vlastimil Baruš et Tamara Petrovna Sergejeva placent cette espèce dans le genre Tridentocapillaria[4], considéré comme sous-genre de Capillaria par le parasitologiste tchèque František Moravec dans sa monographie de 2001 sur les nématodes de la super-famille des Trichinelloidea parasitant les animaux à sang froid[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en 1963 sous le protonyme Thominx eurycerca. En 1990, Vlastimil Baruš et Tamara Petrovna Sergejeva placent cette espèce dans le genre Tridentocapillaria, considéré comme sous-genre de Capillaria par le parasitologiste tchèque František Moravec dans sa monographie de 2001 sur les nématodes de la super-famille des Trichinelloidea parasitant les animaux à sang froid.
 </t>
         </is>
       </c>
